--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_Auto.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_Auto.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8536</v>
+        <v>8534.616716272223</v>
       </c>
       <c r="C2">
-        <v>25653</v>
+        <v>25690.62581580083</v>
       </c>
       <c r="D2">
-        <v>60489</v>
+        <v>60654.61806333878</v>
       </c>
       <c r="E2">
-        <v>100400</v>
+        <v>100531.5535416491</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>89708</v>
+        <v>89885.81977983763</v>
       </c>
       <c r="C3">
-        <v>231800</v>
+        <v>232306.1762703886</v>
       </c>
       <c r="D3">
-        <v>338744</v>
+        <v>339991.8627747862</v>
       </c>
       <c r="E3">
-        <v>412665</v>
+        <v>413840.7570057246</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10098</v>
+        <v>10090.6497544036</v>
       </c>
       <c r="C4">
-        <v>26146</v>
+        <v>26190.64920742056</v>
       </c>
       <c r="D4">
-        <v>49788</v>
+        <v>49951.67028788106</v>
       </c>
       <c r="E4">
-        <v>70350</v>
+        <v>70609.47614285229</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>52944</v>
+        <v>52984.19775889564</v>
       </c>
       <c r="C6">
-        <v>93452</v>
+        <v>93751.81611425432</v>
       </c>
       <c r="D6">
-        <v>103544</v>
+        <v>103884.7425147522</v>
       </c>
       <c r="E6">
-        <v>92736</v>
+        <v>93137.31223794348</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>5775</v>
+        <v>5770.913820418582</v>
       </c>
       <c r="C7">
-        <v>15620</v>
+        <v>15644.51171895376</v>
       </c>
       <c r="D7">
-        <v>20460</v>
+        <v>20529.88086988642</v>
       </c>
       <c r="E7">
-        <v>24264</v>
+        <v>24365.92197415622</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>419580</v>
+        <v>419705.8813295108</v>
       </c>
       <c r="C9">
-        <v>917964</v>
+        <v>918505.808206992</v>
       </c>
       <c r="D9">
-        <v>1482898</v>
+        <v>1487443.043026546</v>
       </c>
       <c r="E9">
-        <v>1992870</v>
+        <v>1999620.638853451</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>566178</v>
+        <v>561717.0829547446</v>
       </c>
       <c r="C12">
-        <v>864012</v>
+        <v>863172.7447987135</v>
       </c>
       <c r="D12">
-        <v>868744</v>
+        <v>870283.3226981713</v>
       </c>
       <c r="E12">
-        <v>688160</v>
+        <v>689812.7500598714</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_Auto.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_Auto.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8534.616716272223</v>
+        <v>10076.12017207754</v>
       </c>
       <c r="C2">
-        <v>25690.62581580083</v>
+        <v>27811.65091790377</v>
       </c>
       <c r="D2">
-        <v>60654.61806333878</v>
+        <v>63204.31197554082</v>
       </c>
       <c r="E2">
-        <v>100531.5535416491</v>
+        <v>100982.568849053</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>89885.81977983763</v>
+        <v>91566.77868434122</v>
       </c>
       <c r="C3">
-        <v>232306.1762703886</v>
+        <v>232818.8663732687</v>
       </c>
       <c r="D3">
-        <v>339991.8627747862</v>
+        <v>338412.210825233</v>
       </c>
       <c r="E3">
-        <v>413840.7570057246</v>
+        <v>411199.3950839322</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10090.6497544036</v>
+        <v>9823.351918722006</v>
       </c>
       <c r="C4">
-        <v>26190.64920742056</v>
+        <v>25801.07998925778</v>
       </c>
       <c r="D4">
-        <v>49951.67028788106</v>
+        <v>49470.79332206395</v>
       </c>
       <c r="E4">
-        <v>70609.47614285229</v>
+        <v>69989.39968750952</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>52984.19775889564</v>
+        <v>51564.31835358254</v>
       </c>
       <c r="C6">
-        <v>93751.81611425432</v>
+        <v>92410.2384498521</v>
       </c>
       <c r="D6">
-        <v>103884.7425147522</v>
+        <v>102989.9613283158</v>
       </c>
       <c r="E6">
-        <v>93137.31223794348</v>
+        <v>92480.02948649126</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>5770.913820418582</v>
+        <v>5447.790072557411</v>
       </c>
       <c r="C7">
-        <v>15644.51171895376</v>
+        <v>15173.97064725417</v>
       </c>
       <c r="D7">
-        <v>20529.88086988642</v>
+        <v>20173.92876528144</v>
       </c>
       <c r="E7">
-        <v>24365.92197415622</v>
+        <v>24032.46842626537</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>419705.8813295108</v>
+        <v>398168.2978063619</v>
       </c>
       <c r="C9">
-        <v>918505.808206992</v>
+        <v>893084.010999167</v>
       </c>
       <c r="D9">
-        <v>1487443.043026546</v>
+        <v>1464361.658241608</v>
       </c>
       <c r="E9">
-        <v>1999620.638853451</v>
+        <v>1975771.995828311</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>561717.0829547446</v>
+        <v>509799.3983904044</v>
       </c>
       <c r="C12">
-        <v>863172.7447987135</v>
+        <v>808302.4041725745</v>
       </c>
       <c r="D12">
-        <v>870283.3226981713</v>
+        <v>839273.8608233988</v>
       </c>
       <c r="E12">
-        <v>689812.7500598714</v>
+        <v>674570.6413512344</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_Auto.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_Auto.xlsx
@@ -394,7 +394,7 @@
         <v>27811.65091790377</v>
       </c>
       <c r="D2">
-        <v>63204.31197554082</v>
+        <v>63204.31197554083</v>
       </c>
       <c r="E2">
         <v>100982.568849053</v>
@@ -408,7 +408,7 @@
         <v>91566.77868434122</v>
       </c>
       <c r="C3">
-        <v>232818.8663732687</v>
+        <v>232818.8663732686</v>
       </c>
       <c r="D3">
         <v>338412.210825233</v>
@@ -428,7 +428,7 @@
         <v>25801.07998925778</v>
       </c>
       <c r="D4">
-        <v>49470.79332206395</v>
+        <v>49470.79332206396</v>
       </c>
       <c r="E4">
         <v>69989.39968750952</v>
@@ -456,10 +456,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>51564.31835358254</v>
+        <v>51564.31835358255</v>
       </c>
       <c r="C6">
-        <v>92410.2384498521</v>
+        <v>92410.23844985211</v>
       </c>
       <c r="D6">
         <v>102989.9613283158</v>
@@ -482,7 +482,7 @@
         <v>20173.92876528144</v>
       </c>
       <c r="E7">
-        <v>24032.46842626537</v>
+        <v>24032.46842626536</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -513,7 +513,7 @@
         <v>893084.010999167</v>
       </c>
       <c r="D9">
-        <v>1464361.658241608</v>
+        <v>1464361.658241609</v>
       </c>
       <c r="E9">
         <v>1975771.995828311</v>
@@ -561,7 +561,7 @@
         <v>509799.3983904044</v>
       </c>
       <c r="C12">
-        <v>808302.4041725745</v>
+        <v>808302.4041725744</v>
       </c>
       <c r="D12">
         <v>839273.8608233988</v>
